--- a/table.xlsx
+++ b/table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>physical name</t>
     <phoneticPr fontId="2"/>
@@ -47,21 +47,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>従業員</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dept</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>組織</t>
-    <rPh sb="0" eb="2">
-      <t>ソシキ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -113,6 +99,60 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>在籍期間</t>
+    <rPh sb="0" eb="2">
+      <t>ザイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>従業員マスタ</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>組織マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ソシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>id_emp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -474,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,13 +558,13 @@
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(A3,table!$A:$B,2,FALSE)</f>
-        <v>従業員</v>
+        <v>従業員マスタ</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -533,13 +573,13 @@
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(A4,table!$A:$B,2,FALSE)</f>
-        <v>従業員</v>
+        <v>従業員マスタ</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -548,43 +588,103 @@
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(A5,table!$A:$B,2,FALSE)</f>
-        <v>従業員</v>
+        <v>従業員マスタ</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(A6,table!$A:$B,2,FALSE)</f>
-        <v>組織</v>
+        <v>組織マスタ</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(A7,table!$A:$B,2,FALSE)</f>
-        <v>組織</v>
+        <v>組織マスタ</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
+      <c r="B8" t="str">
+        <f>VLOOKUP(A8,table!$A:$B,2,FALSE)</f>
+        <v>在籍期間</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP(A9,table!$A:$B,2,FALSE)</f>
+        <v>在籍期間</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP(A10,table!$A:$B,2,FALSE)</f>
+        <v>在籍期間</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,table!$A:$B,2,FALSE)</f>
+        <v>在籍期間</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -600,14 +700,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -623,15 +723,23 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
